--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1666 +453,1836 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7811</t>
+          <t>8706</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,749円</t>
+          <t>1,490円</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7811.pdf</t>
+          <t>8706.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7818</t>
+          <t>8609</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2,075円</t>
+          <t>640円</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7818.pdf</t>
+          <t>8609.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>805円</t>
+          <t>1,370.0円</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7847.pdf</t>
+          <t>3003.pdf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>287円</t>
+          <t>3,295円</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6173.pdf</t>
+          <t>1973.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3174</t>
+          <t>3275</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>708円</t>
+          <t>1,405円</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3174.pdf</t>
+          <t>3275.pdf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3479</t>
+          <t>9533</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,265円</t>
+          <t>4,251円</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3479.pdf</t>
+          <t>9533.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,682円</t>
+          <t>17,575円</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3065.pdf</t>
+          <t>1878.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>9889</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>461円</t>
+          <t>4,535円</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5246.pdf</t>
+          <t>9889.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6224</t>
+          <t>8613</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>923円</t>
+          <t>1,002円</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6224.pdf</t>
+          <t>8613.pdf</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1,215円</t>
+          <t>2,079円</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5250.pdf</t>
+          <t>4099.pdf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>850円</t>
+          <t>960円</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7514.pdf</t>
+          <t>3912.pdf</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>8285</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>935円</t>
+          <t>329円</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5577.pdf</t>
+          <t>8285.pdf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9978</t>
+          <t>8624</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43円</t>
+          <t>962円</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9978.pdf</t>
+          <t>8624.pdf</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>6356</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,205円</t>
+          <t>528円</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6505.pdf</t>
+          <t>6356.pdf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9972</t>
+          <t>6101</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>211円</t>
+          <t>1,558円</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9972.pdf</t>
+          <t>6101.pdf</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>8084</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2,048円</t>
+          <t>2,466円</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2168.pdf</t>
+          <t>8084.pdf</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7352</t>
+          <t>8343</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>876円</t>
+          <t>2,230円</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7352.pdf</t>
+          <t>8343.pdf</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>777円</t>
+          <t>2,953円</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7085.pdf</t>
+          <t>5449.pdf</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7049</t>
+          <t>8622</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>618円</t>
+          <t>573円</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7049.pdf</t>
+          <t>8622.pdf</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5078</t>
+          <t>6798</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4,235円</t>
+          <t>2,576円</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5078.pdf</t>
+          <t>6798.pdf</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9264</t>
+          <t>6858</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1,383円</t>
+          <t>576円</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9264.pdf</t>
+          <t>6858.pdf</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>7380</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,417円</t>
+          <t>4,280円</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4439.pdf</t>
+          <t>7380.pdf</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6814</t>
+          <t>9380</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2,685円</t>
+          <t>337円</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6814.pdf</t>
+          <t>9380.pdf</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8904</t>
+          <t>9708</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>794円</t>
+          <t>920円</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8904.pdf</t>
+          <t>9708.pdf</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>774円</t>
+          <t>5,240円</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3030.pdf</t>
+          <t>4417.pdf</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>8708</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>926円</t>
+          <t>1,774円</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3440.pdf</t>
+          <t>8708.pdf</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>7475</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1,361円</t>
+          <t>2,629円</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3045.pdf</t>
+          <t>7475.pdf</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>776円</t>
+          <t>1,349円</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2975.pdf</t>
+          <t>9037.pdf</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>150円</t>
+          <t>810円</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2930.pdf</t>
+          <t>3793.pdf</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>6973</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13,440円</t>
+          <t>2,299円</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3498.pdf</t>
+          <t>6973.pdf</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>996円</t>
+          <t>661.2円</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1434.pdf</t>
+          <t>2127.pdf</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>6955</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1,035円</t>
+          <t>532円</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4198.pdf</t>
+          <t>6955.pdf</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2,448円</t>
+          <t>1,176円</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4673.pdf</t>
+          <t>2491.pdf</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>398円</t>
+          <t>2,515円</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2722.pdf</t>
+          <t>2540.pdf</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>966円</t>
+          <t>2,390円</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2493.pdf</t>
+          <t>2715.pdf</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>9022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>249円</t>
+          <t>2,965.0円</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2484.pdf</t>
+          <t>9022.pdf</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3266</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>80円</t>
+          <t>2,715.0円</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3266.pdf</t>
+          <t>4204.pdf</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1,412円</t>
+          <t>1,308円</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3073.pdf</t>
+          <t>4956.pdf</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>350円</t>
+          <t>943円</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3987.pdf</t>
+          <t>9219.pdf</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>9377</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>319円</t>
+          <t>1,055円</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2471.pdf</t>
+          <t>9377.pdf</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>902円</t>
+          <t>759円</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2449.pdf</t>
+          <t>6848.pdf</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>9436</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2,339円</t>
+          <t>4,350円</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3087.pdf</t>
+          <t>9436.pdf</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2,504円</t>
+          <t>2,625円</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2379.pdf</t>
+          <t>6823.pdf</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>9507</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3,490円</t>
+          <t>1,234.5円</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3177.pdf</t>
+          <t>9507.pdf</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>9532</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29円</t>
+          <t>3,460.0円</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3823.pdf</t>
+          <t>9532.pdf</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3139</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2,691円</t>
+          <t>1,612.5円</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3139.pdf</t>
+          <t>6770.pdf</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7357</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>629円</t>
+          <t>345円</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7357.pdf</t>
+          <t>4308.pdf</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>9552</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>165円</t>
+          <t>2,037円</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3236.pdf</t>
+          <t>9552.pdf</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>7175</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,037円</t>
+          <t>1,140円</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4429.pdf</t>
+          <t>7175.pdf</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4413</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4,935円</t>
+          <t>2,488円</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4413.pdf</t>
+          <t>4373.pdf</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>294円</t>
+          <t>1,132円</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3810.pdf</t>
+          <t>1930.pdf</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>730円</t>
+          <t>4,160円</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1401.pdf</t>
+          <t>4547.pdf</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3826</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>302円</t>
+          <t>2,008.0円</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3826.pdf</t>
+          <t>7276.pdf</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>322円</t>
+          <t>2,145円</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1418.pdf</t>
+          <t>4549.pdf</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>194円</t>
+          <t>302円</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6572.pdf</t>
+          <t>1850.pdf</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>6754</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>794円</t>
+          <t>1,410.0円</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3907.pdf</t>
+          <t>6754.pdf</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6521</t>
+          <t>6701</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1,553円</t>
+          <t>13,720円</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6521.pdf</t>
+          <t>6701.pdf</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>9955</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>831円</t>
+          <t>2,041円</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4885.pdf</t>
+          <t>9955.pdf</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8143</t>
+          <t>9991</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>205円</t>
+          <t>1,020円</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8143.pdf</t>
+          <t>9991.pdf</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4015</t>
+          <t>6663</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>500円</t>
+          <t>268円</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4015.pdf</t>
+          <t>6663.pdf</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>5834</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>567円</t>
+          <t>2,861円</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7928.pdf</t>
+          <t>5834.pdf</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>716円</t>
+          <t>－円</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3080.pdf</t>
+          <t>3426.pdf</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>720円</t>
+          <t>1,920.5円</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4016.pdf</t>
+          <t>8377.pdf</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2,388円</t>
+          <t>456円</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4197.pdf</t>
+          <t>4479.pdf</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>7559</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>105円</t>
+          <t>1,339円</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7610.pdf</t>
+          <t>7559.pdf</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2798</t>
+          <t>6526</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3,000円</t>
+          <t>2,530.5円</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2798.pdf</t>
+          <t>6526.pdf</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9979</t>
+          <t>6080</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1,077円</t>
+          <t>2,657円</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>9979.pdf</t>
+          <t>6080.pdf</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9661</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4,540円</t>
+          <t>1,608円</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9661.pdf</t>
+          <t>3199.pdf</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9215</t>
+          <t>7751</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>901円</t>
+          <t>5,161円</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>9215.pdf</t>
+          <t>7751.pdf</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>7774</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1,374円</t>
+          <t>463円</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5018.pdf</t>
+          <t>7774.pdf</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>902円</t>
+          <t>2,518円</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5527.pdf</t>
+          <t>5532.pdf</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9418</t>
+          <t>8071</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1,745円</t>
+          <t>2,650円</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9418.pdf</t>
+          <t>8071.pdf</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9331</t>
+          <t>6196</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>989円</t>
+          <t>3,655円</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9331.pdf</t>
+          <t>6196.pdf</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9326</t>
+          <t>6301</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>374円</t>
+          <t>4,350円</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9326.pdf</t>
+          <t>6301.pdf</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9265</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2,422円</t>
+          <t>672円</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>9265.pdf</t>
+          <t>4765.pdf</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9250</t>
+          <t>7995</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1,460円</t>
+          <t>3,270円</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9250.pdf</t>
+          <t>7995.pdf</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1,411円</t>
+          <t>2,418円</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3547.pdf</t>
+          <t>2208.pdf</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4920</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1,248円</t>
+          <t>1,441円</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4920.pdf</t>
+          <t>3640.pdf</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1,108円</t>
+          <t>1,880円</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5595.pdf</t>
+          <t>2359.pdf</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>7839</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1,608円</t>
+          <t>2,253円</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5574.pdf</t>
+          <t>7839.pdf</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>7823</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>421円</t>
+          <t>821円</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2404.pdf</t>
+          <t>7823.pdf</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>519円</t>
+          <t>1,842.0円</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1887.pdf</t>
+          <t>2002.pdf</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>418円</t>
+          <t>1,492円</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>6555.pdf</t>
+          <t>6337.pdf</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7035</t>
+          <t>4498</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>217円</t>
+          <t>2,173円</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7035.pdf</t>
+          <t>4498.pdf</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7689</t>
+          <t>9478</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>525円</t>
+          <t>283円</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7689.pdf</t>
+          <t>9478.pdf</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9238</t>
+          <t>8793</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1,017円</t>
+          <t>3,930円</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>9238.pdf</t>
+          <t>8793.pdf</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3387</t>
+          <t>8771</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1,170円</t>
+          <t>1,781円</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3387.pdf</t>
+          <t>8771.pdf</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1,364円</t>
+          <t>7,910円</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2884.pdf</t>
+          <t>1775.pdf</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>190A</t>
+          <t>5659</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>316円</t>
+          <t>1,340円</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>190A.pdf</t>
+          <t>5659.pdf</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>198A</t>
+          <t>7299</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>620円</t>
+          <t>1,141円</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>198A.pdf</t>
+          <t>7299.pdf</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>205A</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2,381円</t>
+          <t>3,950円</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>205A.pdf</t>
+          <t>8030.pdf</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>228A</t>
+          <t>9742</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1,276円</t>
+          <t>1,826円</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>228A.pdf</t>
+          <t>9742.pdf</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>245A</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2,650円</t>
+          <t>3,830円</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>245A.pdf</t>
+          <t>4461.pdf</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>277A</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>8,470円</t>
+          <t>1,904円</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>277A.pdf</t>
+          <t>2393.pdf</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>280A</t>
+          <t>6413</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1,530円</t>
+          <t>1,606円</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>280A.pdf</t>
+          <t>6413.pdf</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>156A</t>
+          <t>9536</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>604円</t>
+          <t>1,732円</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>156A.pdf</t>
+          <t>9536.pdf</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>135A</t>
+          <t>8537</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2,003円</t>
+          <t>1,455円</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>135A.pdf</t>
+          <t>8537.pdf</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>138A</t>
+          <t>5936</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2,382円</t>
+          <t>803円</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>138A.pdf</t>
+          <t>5936.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>8137</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2,258円</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>8137.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4661</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3,422.0円</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4661.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7551</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>607円</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>7551.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1,861円</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>6023.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3648</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>872円</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3648.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1,558円</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1934.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2,390円</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4362.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>7185</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3,990円</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>7185.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1,369円</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>6912.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>9828</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3,515円</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>9828.pdf</t>
         </is>
       </c>
     </row>
